--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value61.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value61.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6498073089817569</v>
+        <v>1.855056881904602</v>
       </c>
       <c r="B1">
-        <v>1.022027594859571</v>
+        <v>3.061240196228027</v>
       </c>
       <c r="C1">
-        <v>2.087838092613774</v>
+        <v>2.974729537963867</v>
       </c>
       <c r="D1">
-        <v>2.614401721014056</v>
+        <v>3.429309368133545</v>
       </c>
       <c r="E1">
-        <v>2.670227064035604</v>
+        <v>3.970493793487549</v>
       </c>
     </row>
   </sheetData>
